--- a/Atomtest/jenkins_data.xlsx
+++ b/Atomtest/jenkins_data.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22605" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -370,7 +371,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
